--- a/biology/Zoologie/John_Hogg/John_Hogg.xlsx
+++ b/biology/Zoologie/John_Hogg/John_Hogg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Hogg est un naturaliste britannique, né en 1800 et mort le 16 septembre 1869.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce professeur, passionné par l'histoire naturelle fait paraître de nombreux ouvrages sur les sujets les plus variés : 
 l’ornithologie (Catalogue of birds observed in South-Eastern Durham and in North Western Cleveland: with an appendix, containing the classification and nomenclature of all the species included therein, 1845 et surtout Classification of Birds; and particularly of the genera of European birds, 1846),
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>John Hogg, "On the distinctions of a plant and an animal and on a fourth kingdom of Nature", The Edinburgh New Philosophical Journal (New Series), Vol.12, 1860, p. 216–225 + pl.III.</t>
         </is>
